--- a/assets/files/ucla_digital_collections_points_of_view.xlsx
+++ b/assets/files/ucla_digital_collections_points_of_view.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\je757\Documents\Savannah\DRDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48442B60-11ED-4614-888B-8A6299A80944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F24475C-6F32-4D62-ACC0-A9BCE14962F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
     <t>Review the following resource: https://digital.library.ucla.edu/catalog/r54m2000zz-89112</t>
   </si>
   <si>
-    <t>Evaluate the perspective and authority of primary sources with this exercise. First, read through the "Points of View" module. Then, fill out this worksheet. Questions are listed in Column A. Please write your answers in Column B.</t>
+    <t>We are going to evaluate the perspective and authority of two primary sources about the same topic. First, read through the "Points of View" module. Then, fill out this worksheet. Questions are listed in Column A. Please write your answers in Column B.</t>
   </si>
 </sst>
 </file>
@@ -260,17 +260,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -294,10 +283,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -307,6 +292,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -729,7 +729,7 @@
   <dimension ref="A1:Z1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5:Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -740,34 +740,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
     </row>
     <row r="2" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -775,10 +775,10 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:26" s="6" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -810,51 +810,51 @@
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-    </row>
-    <row r="6" spans="1:26" s="23" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+    </row>
+    <row r="6" spans="1:26" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-    </row>
-    <row r="7" spans="1:26" s="23" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:26" s="18" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:26" s="3" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -863,7 +863,7 @@
       <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -871,7 +871,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -880,7 +880,7 @@
       <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -889,7 +889,7 @@
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -898,7 +898,7 @@
       <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -907,7 +907,7 @@
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -925,21 +925,21 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:26" s="23" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:26" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="22"/>
-    </row>
-    <row r="18" spans="1:26" s="23" customFormat="1" ht="169.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:26" s="18" customFormat="1" ht="169.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:26" s="3" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -948,7 +948,7 @@
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:26" s="3" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -956,7 +956,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" s="3" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -965,7 +965,7 @@
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:26" s="3" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -974,7 +974,7 @@
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:26" s="3" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -983,7 +983,7 @@
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:26" s="3" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -992,7 +992,7 @@
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:26" s="3" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1001,51 +1001,51 @@
       <c r="C25" s="8"/>
     </row>
     <row r="27" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-    </row>
-    <row r="28" spans="1:26" s="23" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+    </row>
+    <row r="28" spans="1:26" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-    </row>
-    <row r="29" spans="1:26" s="23" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:26" s="18" customFormat="1" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -1054,7 +1054,7 @@
       <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -1063,7 +1063,7 @@
       <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -1072,7 +1072,7 @@
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" s="3" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -1090,26 +1090,26 @@
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:3" s="23" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+    <row r="36" spans="1:3" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="22"/>
-    </row>
-    <row r="37" spans="1:3" s="23" customFormat="1" ht="169.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
+      <c r="C36" s="17"/>
+    </row>
+    <row r="37" spans="1:3" s="18" customFormat="1" ht="169.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38" spans="1:3" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3" s="3" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1118,7 +1118,7 @@
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3" s="3" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -1127,7 +1127,7 @@
       <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3" s="3" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -1136,7 +1136,7 @@
       <c r="C41" s="8"/>
     </row>
     <row r="42" spans="1:3" s="3" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:3" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-    </row>
-    <row r="44" spans="1:3" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
-    </row>
-    <row r="45" spans="1:3" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
-    </row>
-    <row r="46" spans="1:3" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-    </row>
-    <row r="47" spans="1:3" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
-    </row>
-    <row r="48" spans="1:3" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
-    </row>
-    <row r="49" spans="1:3" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-    </row>
-    <row r="50" spans="1:3" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="1:3" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="1:3" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:3" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="1:3" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+    </row>
+    <row r="48" spans="1:3" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+    </row>
+    <row r="49" spans="1:3" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+    </row>
+    <row r="50" spans="1:3" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-    </row>
-    <row r="51" spans="1:3" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-    </row>
-    <row r="52" spans="1:3" s="15" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-    </row>
-    <row r="53" spans="1:3" s="15" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-    </row>
-    <row r="54" spans="1:3" s="15" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-    </row>
-    <row r="55" spans="1:3" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:3" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="21"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="1:3" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+    </row>
+    <row r="52" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+    </row>
+    <row r="53" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+    </row>
+    <row r="54" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+    </row>
+    <row r="55" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:3" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="16"/>
     </row>
     <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
